--- a/DCIT 65 - IT 3B/POINTS - IT 3B.xlsx
+++ b/DCIT 65 - IT 3B/POINTS - IT 3B.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\DCIT 65 - IT 3B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\Grading-Sheets-Second-Sem-2017-2018\DCIT 65 - IT 3B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7AEEFD-B02D-4D5B-A484-E8B672AEE084}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8F11E6-E95A-4558-B8F9-3539218EE115}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recitation" sheetId="1" r:id="rId1"/>
-    <sheet name="Quizzes&amp;Ass" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
-    <sheet name="Laboratory" sheetId="6" r:id="rId4"/>
-    <sheet name="TITLES" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId2"/>
+    <sheet name="Quizzes&amp;Ass" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="Laboratory" sheetId="6" r:id="rId5"/>
+    <sheet name="TITLES" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="242">
   <si>
     <t>C</t>
   </si>
@@ -660,13 +661,103 @@
   </si>
   <si>
     <t>2013-01-1179</t>
+  </si>
+  <si>
+    <t>ABRAHAM JEROME A</t>
+  </si>
+  <si>
+    <t>ABRASALDO PATRICIA E</t>
+  </si>
+  <si>
+    <t>AGONIA ANGEL  L</t>
+  </si>
+  <si>
+    <t>ALGARA JONNEL R</t>
+  </si>
+  <si>
+    <t>ALZAROONI OMAR R</t>
+  </si>
+  <si>
+    <t>APUYA PRINCESS DAUP P</t>
+  </si>
+  <si>
+    <t>CALIWAGAN AILA S</t>
+  </si>
+  <si>
+    <t>CARLOS PATRICK C</t>
+  </si>
+  <si>
+    <t>CARPENA IAN REYMAR M</t>
+  </si>
+  <si>
+    <t>DAVID ELLAYSA C</t>
+  </si>
+  <si>
+    <t>DAYRIT JEROMIE C</t>
+  </si>
+  <si>
+    <t>DIONELA MARY JOYCE T</t>
+  </si>
+  <si>
+    <t>GELLE KIRSCELYN I</t>
+  </si>
+  <si>
+    <t>HERNANDEZ MERYLL E</t>
+  </si>
+  <si>
+    <t>JORGE LEAH MARIEZ P</t>
+  </si>
+  <si>
+    <t>JUANILLAS JOSEPHINE L</t>
+  </si>
+  <si>
+    <t>LICOT ROZEL B</t>
+  </si>
+  <si>
+    <t>LOMTONG BIANCA MAY G</t>
+  </si>
+  <si>
+    <t>MENDOZA MA. ELLAINE V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENDOZA LANCE </t>
+  </si>
+  <si>
+    <t>MIRASOL SEAN KRYX G</t>
+  </si>
+  <si>
+    <t>ONIA JAYVEE RENZ J</t>
+  </si>
+  <si>
+    <t>PARANGIPANG JHOMARI A</t>
+  </si>
+  <si>
+    <t>RAZON EIRON PAUL F</t>
+  </si>
+  <si>
+    <t>SAPATUA JOSELLE RYANEL B</t>
+  </si>
+  <si>
+    <t>TUYOR JENNY A</t>
+  </si>
+  <si>
+    <t>UNITO CLIFFORD KOD D</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Excess</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1237,7 +1328,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1413,6 +1504,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1563,7 +1670,7 @@
     <cellStyle name="Accent6" xfId="6" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="48">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1881,6 +1988,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2338,14 +2485,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AQ76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK6" sqref="AK6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO1" sqref="AO1:AQ46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -2355,59 +2502,66 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:43" ht="15">
+      <c r="A1" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="68" t="s">
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="69" t="s">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="63" t="s">
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="66">
+        <v>80</v>
+      </c>
+      <c r="AQ1" s="67"/>
+    </row>
+    <row r="2" spans="1:43" ht="15">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -2523,11 +2677,20 @@
       <c r="AM2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="AN2" s="20" t="s">
+      <c r="AN2" s="64" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO2" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="AP2" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="AQ2" s="66" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="15">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -2578,21 +2741,34 @@
         <v>70</v>
       </c>
       <c r="AJ3" s="35">
-        <f>SUM(F3:AI3)</f>
+        <f t="shared" ref="AJ3:AJ30" si="0">SUM(F3:AI3)</f>
         <v>128</v>
       </c>
       <c r="AK3" s="35">
-        <f>IF(AJ3&gt;100,AJ3-(AJ3-100),AJ3)</f>
+        <f t="shared" ref="AK3:AK30" si="1">IF(AJ3&gt;100,AJ3-(AJ3-100),AJ3)</f>
         <v>100</v>
       </c>
       <c r="AL3" s="35">
-        <f>IF(AJ3&gt;100,(AJ3-100)/10,0)</f>
+        <f t="shared" ref="AL3:AL30" si="2">IF(AJ3&gt;100,(AJ3-100)/10,0)</f>
         <v>2.8</v>
       </c>
       <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN3" s="69">
+        <v>62</v>
+      </c>
+      <c r="AO3" s="68">
+        <f t="shared" ref="AO3:AO30" si="3">IF(AN3+AL3&gt;AQ3,AQ3,AN3+AL3)</f>
+        <v>64.8</v>
+      </c>
+      <c r="AP3" s="68">
+        <f t="shared" ref="AP3:AP8" si="4">IF(AN3+AL3&gt;AQ3,AL3+AN3-AQ3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="15">
       <c r="A4" s="6" t="s">
         <v>92</v>
       </c>
@@ -2647,21 +2823,34 @@
         <v>90</v>
       </c>
       <c r="AJ4" s="35">
-        <f t="shared" ref="AJ4:AJ20" si="0">SUM(F4:AI4)</f>
+        <f t="shared" si="0"/>
         <v>193</v>
       </c>
       <c r="AK4" s="35">
-        <f t="shared" ref="AK4:AK23" si="1">IF(AJ4&gt;100,AJ4-(AJ4-100),AJ4)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AL4" s="35">
-        <f t="shared" ref="AL4:AL67" si="2">IF(AJ4&gt;100,(AJ4-100)/10,0)</f>
+        <f t="shared" si="2"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN4" s="70">
+        <v>57</v>
+      </c>
+      <c r="AO4" s="68">
+        <f t="shared" si="3"/>
+        <v>66.3</v>
+      </c>
+      <c r="AP4" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="15">
       <c r="A5" s="11" t="s">
         <v>94</v>
       </c>
@@ -2724,9 +2913,22 @@
         <v>2.8</v>
       </c>
       <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN5" s="70">
+        <v>55</v>
+      </c>
+      <c r="AO5" s="68">
+        <f t="shared" si="3"/>
+        <v>57.8</v>
+      </c>
+      <c r="AP5" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="15">
       <c r="A6" s="6" t="s">
         <v>97</v>
       </c>
@@ -2789,9 +2991,22 @@
         <v>2</v>
       </c>
       <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN6" s="70">
+        <v>69</v>
+      </c>
+      <c r="AO6" s="68">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="AP6" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="15">
       <c r="A7" s="6" t="s">
         <v>100</v>
       </c>
@@ -2856,9 +3071,22 @@
         <v>4.5</v>
       </c>
       <c r="AM7" s="35"/>
-      <c r="AN7" s="35"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN7" s="70">
+        <v>69</v>
+      </c>
+      <c r="AO7" s="68">
+        <f t="shared" si="3"/>
+        <v>73.5</v>
+      </c>
+      <c r="AP7" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="15">
       <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
@@ -2923,9 +3151,22 @@
         <v>1.5</v>
       </c>
       <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN8" s="70">
+        <v>61</v>
+      </c>
+      <c r="AO8" s="68">
+        <f t="shared" si="3"/>
+        <v>62.5</v>
+      </c>
+      <c r="AP8" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="15">
       <c r="A9" s="6" t="s">
         <v>106</v>
       </c>
@@ -2988,9 +3229,21 @@
         <v>2.8</v>
       </c>
       <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN9" s="70">
+        <v>62</v>
+      </c>
+      <c r="AO9" s="68">
+        <f t="shared" si="3"/>
+        <v>64.8</v>
+      </c>
+      <c r="AP9" s="68">
+        <v>3</v>
+      </c>
+      <c r="AQ9" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="15">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -3057,9 +3310,22 @@
         <v>3.2</v>
       </c>
       <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN10" s="70">
+        <v>57</v>
+      </c>
+      <c r="AO10" s="68">
+        <f t="shared" si="3"/>
+        <v>60.2</v>
+      </c>
+      <c r="AP10" s="68">
+        <f t="shared" ref="AP10:AP30" si="5">IF(AN10+AL10&gt;AQ10,AL10+AN10-AQ10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" ht="15">
       <c r="A11" s="22" t="s">
         <v>175</v>
       </c>
@@ -3120,9 +3386,22 @@
         <v>0</v>
       </c>
       <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN11" s="70">
+        <v>20</v>
+      </c>
+      <c r="AO11" s="68">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AP11" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="15">
       <c r="A12" s="6" t="s">
         <v>160</v>
       </c>
@@ -3185,9 +3464,22 @@
         <v>2.8</v>
       </c>
       <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN12" s="70">
+        <v>65</v>
+      </c>
+      <c r="AO12" s="68">
+        <f t="shared" si="3"/>
+        <v>67.8</v>
+      </c>
+      <c r="AP12" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="15">
       <c r="A13" s="6" t="s">
         <v>115</v>
       </c>
@@ -3250,9 +3542,22 @@
         <v>2</v>
       </c>
       <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN13" s="70">
+        <v>66</v>
+      </c>
+      <c r="AO13" s="68">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="AP13" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" ht="15">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>117</v>
@@ -3315,9 +3620,22 @@
         <v>1.5</v>
       </c>
       <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN14" s="70">
+        <v>48</v>
+      </c>
+      <c r="AO14" s="68">
+        <f t="shared" si="3"/>
+        <v>49.5</v>
+      </c>
+      <c r="AP14" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="15">
       <c r="A15" s="6" t="s">
         <v>172</v>
       </c>
@@ -3382,21 +3700,34 @@
         <v>1.5</v>
       </c>
       <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN15" s="70">
+        <v>45</v>
+      </c>
+      <c r="AO15" s="68">
+        <f t="shared" si="3"/>
+        <v>46.5</v>
+      </c>
+      <c r="AP15" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
       <c r="A16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10" t="s">
-        <v>50</v>
+        <v>211</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="23" t="s">
+        <v>4</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
@@ -3408,7 +3739,9 @@
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
       <c r="O16" s="27"/>
-      <c r="P16" s="32"/>
+      <c r="P16" s="32">
+        <v>50</v>
+      </c>
       <c r="Q16" s="32"/>
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
@@ -3427,18 +3760,16 @@
       <c r="AD16" s="33"/>
       <c r="AE16" s="33"/>
       <c r="AF16" s="33">
-        <v>12</v>
-      </c>
-      <c r="AG16" s="33">
-        <v>40</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AG16" s="33"/>
       <c r="AH16" s="33"/>
       <c r="AI16" s="33">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AJ16" s="35">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="AK16" s="35">
         <f t="shared" si="1"/>
@@ -3446,24 +3777,37 @@
       </c>
       <c r="AL16" s="35">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN16" s="65">
+        <v>67</v>
+      </c>
+      <c r="AO16" s="68">
+        <f t="shared" si="3"/>
+        <v>69.8</v>
+      </c>
+      <c r="AP16" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" ht="15">
       <c r="A17" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
@@ -3516,21 +3860,34 @@
         <v>0.6</v>
       </c>
       <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN17" s="70">
+        <v>55</v>
+      </c>
+      <c r="AO17" s="68">
+        <f t="shared" si="3"/>
+        <v>55.6</v>
+      </c>
+      <c r="AP17" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" ht="15">
       <c r="A18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
@@ -3561,18 +3918,18 @@
       <c r="AD18" s="33"/>
       <c r="AE18" s="33"/>
       <c r="AF18" s="33">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG18" s="33">
         <v>40</v>
       </c>
       <c r="AH18" s="33"/>
       <c r="AI18" s="33">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AJ18" s="35">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="AK18" s="35">
         <f t="shared" si="1"/>
@@ -3580,24 +3937,37 @@
       </c>
       <c r="AL18" s="35">
         <f t="shared" si="2"/>
-        <v>6.3</v>
+        <v>0.6</v>
       </c>
       <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN18" s="70">
+        <v>59</v>
+      </c>
+      <c r="AO18" s="68">
+        <f t="shared" si="3"/>
+        <v>59.6</v>
+      </c>
+      <c r="AP18" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" ht="15">
       <c r="A19" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
@@ -3609,9 +3979,7 @@
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
       <c r="O19" s="27"/>
-      <c r="P19" s="32">
-        <v>30</v>
-      </c>
+      <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
@@ -3641,7 +4009,7 @@
       </c>
       <c r="AJ19" s="35">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="AK19" s="35">
         <f t="shared" si="1"/>
@@ -3649,24 +4017,37 @@
       </c>
       <c r="AL19" s="35">
         <f t="shared" si="2"/>
-        <v>9.3000000000000007</v>
+        <v>6.3</v>
       </c>
       <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN19" s="70">
+        <v>53</v>
+      </c>
+      <c r="AO19" s="68">
+        <f t="shared" si="3"/>
+        <v>59.3</v>
+      </c>
+      <c r="AP19" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" ht="15">
       <c r="A20" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
@@ -3678,7 +4059,9 @@
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
       <c r="O20" s="27"/>
-      <c r="P20" s="32"/>
+      <c r="P20" s="32">
+        <v>30</v>
+      </c>
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
@@ -3708,7 +4091,7 @@
       </c>
       <c r="AJ20" s="35">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="AK20" s="35">
         <f t="shared" si="1"/>
@@ -3716,24 +4099,37 @@
       </c>
       <c r="AL20" s="35">
         <f t="shared" si="2"/>
-        <v>6.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>66</v>
+      <c r="AN20" s="70">
+        <v>54</v>
+      </c>
+      <c r="AO20" s="68">
+        <f t="shared" si="3"/>
+        <v>63.3</v>
+      </c>
+      <c r="AP20" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" ht="15">
+      <c r="A21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
@@ -3745,9 +4141,7 @@
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
       <c r="O21" s="27"/>
-      <c r="P21" s="32">
-        <v>50</v>
-      </c>
+      <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
@@ -3756,9 +4150,7 @@
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
       <c r="X21" s="32"/>
-      <c r="Y21" s="32">
-        <v>70</v>
-      </c>
+      <c r="Y21" s="32"/>
       <c r="Z21" s="33"/>
       <c r="AA21" s="33"/>
       <c r="AB21" s="33"/>
@@ -3768,18 +4160,18 @@
       <c r="AD21" s="33"/>
       <c r="AE21" s="33"/>
       <c r="AF21" s="33">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG21" s="33">
         <v>40</v>
       </c>
       <c r="AH21" s="33"/>
       <c r="AI21" s="33">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AJ21" s="35">
-        <f>SUM(F21:AI21)</f>
-        <v>235</v>
+        <f t="shared" si="0"/>
+        <v>163</v>
       </c>
       <c r="AK21" s="35">
         <f t="shared" si="1"/>
@@ -3787,21 +4179,38 @@
       </c>
       <c r="AL21" s="35">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>6.3</v>
       </c>
       <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+      <c r="AN21" s="70">
+        <v>75</v>
+      </c>
+      <c r="AO21" s="68">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="AP21" s="68">
+        <f t="shared" si="5"/>
+        <v>1.2999999999999972</v>
+      </c>
+      <c r="AQ21" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" ht="15">
+      <c r="A22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="10" t="s">
+        <v>158</v>
+      </c>
       <c r="F22" s="31"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -3812,7 +4221,9 @@
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
       <c r="O22" s="27"/>
-      <c r="P22" s="32"/>
+      <c r="P22" s="32">
+        <v>50</v>
+      </c>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
@@ -3821,7 +4232,9 @@
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
       <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
+      <c r="Y22" s="32">
+        <v>70</v>
+      </c>
       <c r="Z22" s="33"/>
       <c r="AA22" s="33"/>
       <c r="AB22" s="33"/>
@@ -3830,17 +4243,19 @@
       </c>
       <c r="AD22" s="33"/>
       <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
+      <c r="AF22" s="33">
+        <v>12</v>
+      </c>
       <c r="AG22" s="33">
         <v>40</v>
       </c>
       <c r="AH22" s="33"/>
       <c r="AI22" s="33">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="AJ22" s="35">
-        <f t="shared" ref="AJ22:AJ23" si="3">SUM(F22:AI22)</f>
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>235</v>
       </c>
       <c r="AK22" s="35">
         <f t="shared" si="1"/>
@@ -3848,25 +4263,34 @@
       </c>
       <c r="AL22" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>13.5</v>
       </c>
       <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>139</v>
+      <c r="AN22" s="70">
+        <v>71</v>
+      </c>
+      <c r="AO22" s="68">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="AP22" s="68">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="AQ22" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" ht="15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="E23" s="11"/>
       <c r="F23" s="31"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -3904,7 +4328,7 @@
         <v>62</v>
       </c>
       <c r="AJ23" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="AK23" s="35">
@@ -3916,21 +4340,34 @@
         <v>2</v>
       </c>
       <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN23" s="70">
+        <v>53</v>
+      </c>
+      <c r="AO23" s="68">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="AP23" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" ht="15">
       <c r="A24" s="22" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="22" t="s">
-        <v>174</v>
+        <v>139</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="28"/>
@@ -3965,35 +4402,50 @@
         <v>40</v>
       </c>
       <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
+      <c r="AI24" s="33">
+        <v>62</v>
+      </c>
       <c r="AJ24" s="35">
-        <f t="shared" ref="AJ24:AJ34" si="4">SUM(F24:AI24)</f>
-        <v>58</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="AK24" s="35">
-        <f t="shared" ref="AK24:AK34" si="5">IF(AJ24&gt;100,AJ24-(AJ24-100),AJ24)</f>
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="AL24" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>140</v>
+      <c r="AN24" s="70">
+        <v>61</v>
+      </c>
+      <c r="AO24" s="68">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="AP24" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" ht="15">
+      <c r="A25" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="22" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="28"/>
@@ -4023,44 +4475,53 @@
       </c>
       <c r="AD25" s="33"/>
       <c r="AE25" s="33"/>
-      <c r="AF25" s="33">
-        <v>12</v>
-      </c>
+      <c r="AF25" s="33"/>
       <c r="AG25" s="33">
         <v>40</v>
       </c>
       <c r="AH25" s="33"/>
-      <c r="AI25" s="33">
-        <v>36</v>
-      </c>
+      <c r="AI25" s="33"/>
       <c r="AJ25" s="35">
-        <f t="shared" si="4"/>
-        <v>106</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="AK25" s="35">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="AL25" s="35">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN25" s="70">
+        <v>63</v>
+      </c>
+      <c r="AO25" s="68">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="AP25" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" ht="15">
       <c r="A26" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="22" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="28"/>
@@ -4072,9 +4533,7 @@
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="27"/>
-      <c r="P26" s="32">
-        <v>25</v>
-      </c>
+      <c r="P26" s="32"/>
       <c r="Q26" s="32"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
@@ -4103,33 +4562,46 @@
         <v>36</v>
       </c>
       <c r="AJ26" s="35">
-        <f t="shared" si="4"/>
-        <v>131</v>
+        <f t="shared" si="0"/>
+        <v>106</v>
       </c>
       <c r="AK26" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AL26" s="35">
         <f t="shared" si="2"/>
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN26" s="70">
+        <v>60</v>
+      </c>
+      <c r="AO26" s="68">
+        <f t="shared" si="3"/>
+        <v>60.6</v>
+      </c>
+      <c r="AP26" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" ht="15">
       <c r="A27" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="22" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="28"/>
@@ -4141,7 +4613,9 @@
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
       <c r="O27" s="27"/>
-      <c r="P27" s="32"/>
+      <c r="P27" s="32">
+        <v>25</v>
+      </c>
       <c r="Q27" s="32"/>
       <c r="R27" s="32"/>
       <c r="S27" s="32"/>
@@ -4159,42 +4633,57 @@
       </c>
       <c r="AD27" s="33"/>
       <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
+      <c r="AF27" s="33">
+        <v>12</v>
+      </c>
       <c r="AG27" s="33">
         <v>40</v>
       </c>
       <c r="AH27" s="33"/>
       <c r="AI27" s="33">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AJ27" s="35">
-        <f t="shared" si="4"/>
-        <v>128</v>
+        <f t="shared" si="0"/>
+        <v>131</v>
       </c>
       <c r="AK27" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AL27" s="35">
         <f t="shared" si="2"/>
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AM27" s="35"/>
-      <c r="AN27" s="35"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>149</v>
+      <c r="AN27" s="70">
+        <v>55</v>
+      </c>
+      <c r="AO27" s="68">
+        <f t="shared" si="3"/>
+        <v>58.1</v>
+      </c>
+      <c r="AP27" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" ht="15">
+      <c r="A28" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="28"/>
@@ -4224,44 +4713,55 @@
       </c>
       <c r="AD28" s="33"/>
       <c r="AE28" s="33"/>
-      <c r="AF28" s="33">
-        <v>15</v>
-      </c>
+      <c r="AF28" s="33"/>
       <c r="AG28" s="33">
         <v>40</v>
       </c>
       <c r="AH28" s="33"/>
       <c r="AI28" s="33">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AJ28" s="35">
-        <f t="shared" si="4"/>
-        <v>163</v>
+        <f t="shared" si="0"/>
+        <v>128</v>
       </c>
       <c r="AK28" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AL28" s="35">
         <f t="shared" si="2"/>
-        <v>6.3</v>
+        <v>2.8</v>
       </c>
       <c r="AM28" s="35"/>
-      <c r="AN28" s="35"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN28" s="70">
+        <v>71</v>
+      </c>
+      <c r="AO28" s="68">
+        <f t="shared" si="3"/>
+        <v>73.8</v>
+      </c>
+      <c r="AP28" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" ht="15">
       <c r="A29" s="22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="28"/>
@@ -4273,9 +4773,7 @@
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
       <c r="O29" s="27"/>
-      <c r="P29" s="32">
-        <v>70</v>
-      </c>
+      <c r="P29" s="32"/>
       <c r="Q29" s="32"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
@@ -4294,43 +4792,56 @@
       <c r="AD29" s="33"/>
       <c r="AE29" s="33"/>
       <c r="AF29" s="33">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG29" s="33">
         <v>40</v>
       </c>
       <c r="AH29" s="33"/>
       <c r="AI29" s="33">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AJ29" s="35">
-        <f t="shared" si="4"/>
-        <v>185</v>
+        <f t="shared" si="0"/>
+        <v>163</v>
       </c>
       <c r="AK29" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AL29" s="35">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="AM29" s="35"/>
-      <c r="AN29" s="35"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>211</v>
+      <c r="AN29" s="70">
+        <v>74</v>
+      </c>
+      <c r="AO29" s="68">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="AP29" s="68">
+        <f t="shared" si="5"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="AQ29" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" ht="15">
+      <c r="A30" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="28"/>
@@ -4343,7 +4854,7 @@
       <c r="N30" s="29"/>
       <c r="O30" s="27"/>
       <c r="P30" s="32">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q30" s="32"/>
       <c r="R30" s="32"/>
@@ -4363,29 +4874,44 @@
       <c r="AD30" s="33"/>
       <c r="AE30" s="33"/>
       <c r="AF30" s="33">
-        <v>15</v>
-      </c>
-      <c r="AG30" s="33"/>
+        <v>12</v>
+      </c>
+      <c r="AG30" s="33">
+        <v>40</v>
+      </c>
       <c r="AH30" s="33"/>
       <c r="AI30" s="33">
         <v>45</v>
       </c>
       <c r="AJ30" s="35">
-        <f t="shared" si="4"/>
-        <v>128</v>
+        <f t="shared" si="0"/>
+        <v>185</v>
       </c>
       <c r="AK30" s="35">
-        <f>IF(AJ30&gt;100,AJ30-(AJ30-100),AJ30)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AL30" s="35">
         <f t="shared" si="2"/>
-        <v>2.8</v>
+        <v>8.5</v>
       </c>
       <c r="AM30" s="35"/>
-      <c r="AN30" s="35"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN30" s="70">
+        <v>60</v>
+      </c>
+      <c r="AO30" s="68">
+        <f t="shared" si="3"/>
+        <v>68.5</v>
+      </c>
+      <c r="AP30" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
       <c r="A31" s="6"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
@@ -4422,21 +4948,32 @@
       <c r="AH31" s="33"/>
       <c r="AI31" s="33"/>
       <c r="AJ31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AJ31:AJ36" si="6">SUM(F31:AI31)</f>
         <v>0</v>
       </c>
       <c r="AK31" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AK31:AK36" si="7">IF(AJ31&gt;100,AJ31-(AJ31-100),AJ31)</f>
         <v>0</v>
       </c>
       <c r="AL31" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AL31:AL36" si="8">IF(AJ31&gt;100,(AJ31-100)/10,0)</f>
         <v>0</v>
       </c>
       <c r="AM31" s="35"/>
-      <c r="AN31" s="35"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN31" s="65"/>
+      <c r="AO31" s="68">
+        <f t="shared" ref="AO31:AO46" si="9">IF(AN31+AL31&gt;AQ31,AQ31,AN31+AL31)</f>
+        <v>0</v>
+      </c>
+      <c r="AP31" s="68">
+        <f t="shared" ref="AP31:AP46" si="10">IF(AN31+AL31&gt;AQ31,AL31+AN31-AQ31,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
       <c r="A32" s="6"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
@@ -4473,21 +5010,32 @@
       <c r="AH32" s="33"/>
       <c r="AI32" s="33"/>
       <c r="AJ32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK32" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL32" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM32" s="35"/>
-      <c r="AN32" s="35"/>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN32" s="65"/>
+      <c r="AO32" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP32" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
       <c r="A33" s="6"/>
       <c r="B33" s="22"/>
       <c r="C33" s="25"/>
@@ -4524,21 +5072,32 @@
       <c r="AH33" s="33"/>
       <c r="AI33" s="33"/>
       <c r="AJ33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK33" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL33" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM33" s="35"/>
-      <c r="AN33" s="35"/>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN33" s="65"/>
+      <c r="AO33" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP33" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43">
       <c r="A34" s="22"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -4575,21 +5134,32 @@
       <c r="AH34" s="33"/>
       <c r="AI34" s="33"/>
       <c r="AJ34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK34" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL34" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM34" s="35"/>
-      <c r="AN34" s="35"/>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN34" s="65"/>
+      <c r="AO34" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP34" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -4626,21 +5196,32 @@
       <c r="AH35" s="33"/>
       <c r="AI35" s="33"/>
       <c r="AJ35" s="35">
-        <f t="shared" ref="AJ35:AJ61" si="6">SUM(F35:AI35)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK35" s="35">
-        <f t="shared" ref="AK35:AK61" si="7">IF(AJ35&gt;100,AJ35-(AJ35-100),AJ35)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL35" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM35" s="35"/>
-      <c r="AN35" s="35"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN35" s="65"/>
+      <c r="AO35" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -4685,13 +5266,24 @@
         <v>0</v>
       </c>
       <c r="AL36" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM36" s="35"/>
-      <c r="AN36" s="35"/>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN36" s="65"/>
+      <c r="AO36" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP36" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -4728,21 +5320,32 @@
       <c r="AH37" s="33"/>
       <c r="AI37" s="33"/>
       <c r="AJ37" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AJ37:AJ61" si="11">SUM(F37:AI37)</f>
         <v>0</v>
       </c>
       <c r="AK37" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AK37:AK61" si="12">IF(AJ37&gt;100,AJ37-(AJ37-100),AJ37)</f>
         <v>0</v>
       </c>
       <c r="AL37" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AL37:AL67" si="13">IF(AJ37&gt;100,(AJ37-100)/10,0)</f>
         <v>0</v>
       </c>
       <c r="AM37" s="35"/>
-      <c r="AN37" s="35"/>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN37" s="65"/>
+      <c r="AO37" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP37" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -4779,21 +5382,32 @@
       <c r="AH38" s="33"/>
       <c r="AI38" s="33"/>
       <c r="AJ38" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK38" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL38" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM38" s="35"/>
-      <c r="AN38" s="35"/>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN38" s="65"/>
+      <c r="AO38" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP38" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -4830,21 +5444,32 @@
       <c r="AH39" s="33"/>
       <c r="AI39" s="33"/>
       <c r="AJ39" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK39" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL39" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM39" s="35"/>
-      <c r="AN39" s="35"/>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN39" s="65"/>
+      <c r="AO39" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP39" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -4881,21 +5506,32 @@
       <c r="AH40" s="33"/>
       <c r="AI40" s="33"/>
       <c r="AJ40" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK40" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL40" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM40" s="35"/>
-      <c r="AN40" s="35"/>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN40" s="65"/>
+      <c r="AO40" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -4932,21 +5568,32 @@
       <c r="AH41" s="33"/>
       <c r="AI41" s="33"/>
       <c r="AJ41" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK41" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL41" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM41" s="35"/>
-      <c r="AN41" s="35"/>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN41" s="65"/>
+      <c r="AO41" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP41" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -4983,21 +5630,32 @@
       <c r="AH42" s="33"/>
       <c r="AI42" s="33"/>
       <c r="AJ42" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK42" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL42" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM42" s="35"/>
-      <c r="AN42" s="35"/>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN42" s="65"/>
+      <c r="AO42" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP42" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -5034,21 +5692,32 @@
       <c r="AH43" s="33"/>
       <c r="AI43" s="33"/>
       <c r="AJ43" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK43" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL43" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM43" s="35"/>
-      <c r="AN43" s="35"/>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN43" s="65"/>
+      <c r="AO43" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -5085,21 +5754,32 @@
       <c r="AH44" s="33"/>
       <c r="AI44" s="33"/>
       <c r="AJ44" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK44" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL44" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM44" s="35"/>
-      <c r="AN44" s="35"/>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN44" s="65"/>
+      <c r="AO44" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP44" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -5136,21 +5816,32 @@
       <c r="AH45" s="33"/>
       <c r="AI45" s="33"/>
       <c r="AJ45" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK45" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL45" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM45" s="35"/>
-      <c r="AN45" s="35"/>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN45" s="65"/>
+      <c r="AO45" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP45" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -5187,21 +5878,32 @@
       <c r="AH46" s="33"/>
       <c r="AI46" s="33"/>
       <c r="AJ46" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK46" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL46" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM46" s="35"/>
-      <c r="AN46" s="35"/>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN46" s="65"/>
+      <c r="AO46" s="68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP46" s="68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -5238,21 +5940,24 @@
       <c r="AH47" s="33"/>
       <c r="AI47" s="33"/>
       <c r="AJ47" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK47" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL47" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM47" s="35"/>
-      <c r="AN47" s="35"/>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN47" s="65"/>
+      <c r="AO47" s="66"/>
+      <c r="AP47" s="66"/>
+      <c r="AQ47" s="66"/>
+    </row>
+    <row r="48" spans="1:43">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -5289,21 +5994,24 @@
       <c r="AH48" s="33"/>
       <c r="AI48" s="33"/>
       <c r="AJ48" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK48" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL48" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM48" s="35"/>
-      <c r="AN48" s="35"/>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN48" s="65"/>
+      <c r="AO48" s="66"/>
+      <c r="AP48" s="66"/>
+      <c r="AQ48" s="66"/>
+    </row>
+    <row r="49" spans="1:43">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -5340,21 +6048,24 @@
       <c r="AH49" s="33"/>
       <c r="AI49" s="33"/>
       <c r="AJ49" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK49" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL49" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM49" s="35"/>
-      <c r="AN49" s="35"/>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN49" s="65"/>
+      <c r="AO49" s="66"/>
+      <c r="AP49" s="66"/>
+      <c r="AQ49" s="66"/>
+    </row>
+    <row r="50" spans="1:43">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -5391,21 +6102,24 @@
       <c r="AH50" s="33"/>
       <c r="AI50" s="33"/>
       <c r="AJ50" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK50" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL50" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM50" s="35"/>
-      <c r="AN50" s="35"/>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN50" s="65"/>
+      <c r="AO50" s="66"/>
+      <c r="AP50" s="66"/>
+      <c r="AQ50" s="66"/>
+    </row>
+    <row r="51" spans="1:43">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -5442,21 +6156,24 @@
       <c r="AH51" s="33"/>
       <c r="AI51" s="33"/>
       <c r="AJ51" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK51" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL51" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM51" s="35"/>
-      <c r="AN51" s="35"/>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN51" s="65"/>
+      <c r="AO51" s="66"/>
+      <c r="AP51" s="66"/>
+      <c r="AQ51" s="66"/>
+    </row>
+    <row r="52" spans="1:43">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -5493,21 +6210,24 @@
       <c r="AH52" s="33"/>
       <c r="AI52" s="33"/>
       <c r="AJ52" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK52" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL52" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM52" s="35"/>
-      <c r="AN52" s="35"/>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN52" s="65"/>
+      <c r="AO52" s="66"/>
+      <c r="AP52" s="66"/>
+      <c r="AQ52" s="66"/>
+    </row>
+    <row r="53" spans="1:43">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -5544,21 +6264,24 @@
       <c r="AH53" s="33"/>
       <c r="AI53" s="33"/>
       <c r="AJ53" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK53" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL53" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM53" s="35"/>
-      <c r="AN53" s="35"/>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN53" s="65"/>
+      <c r="AO53" s="66"/>
+      <c r="AP53" s="66"/>
+      <c r="AQ53" s="66"/>
+    </row>
+    <row r="54" spans="1:43">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -5595,21 +6318,24 @@
       <c r="AH54" s="33"/>
       <c r="AI54" s="33"/>
       <c r="AJ54" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK54" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL54" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM54" s="35"/>
-      <c r="AN54" s="35"/>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN54" s="65"/>
+      <c r="AO54" s="66"/>
+      <c r="AP54" s="66"/>
+      <c r="AQ54" s="66"/>
+    </row>
+    <row r="55" spans="1:43">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -5646,21 +6372,24 @@
       <c r="AH55" s="33"/>
       <c r="AI55" s="33"/>
       <c r="AJ55" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK55" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL55" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM55" s="35"/>
-      <c r="AN55" s="35"/>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN55" s="65"/>
+      <c r="AO55" s="66"/>
+      <c r="AP55" s="66"/>
+      <c r="AQ55" s="66"/>
+    </row>
+    <row r="56" spans="1:43">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -5697,21 +6426,24 @@
       <c r="AH56" s="33"/>
       <c r="AI56" s="33"/>
       <c r="AJ56" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK56" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL56" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM56" s="35"/>
-      <c r="AN56" s="35"/>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN56" s="65"/>
+      <c r="AO56" s="66"/>
+      <c r="AP56" s="66"/>
+      <c r="AQ56" s="66"/>
+    </row>
+    <row r="57" spans="1:43">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -5748,21 +6480,24 @@
       <c r="AH57" s="33"/>
       <c r="AI57" s="33"/>
       <c r="AJ57" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK57" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL57" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM57" s="35"/>
-      <c r="AN57" s="35"/>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN57" s="65"/>
+      <c r="AO57" s="66"/>
+      <c r="AP57" s="66"/>
+      <c r="AQ57" s="66"/>
+    </row>
+    <row r="58" spans="1:43">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -5799,21 +6534,24 @@
       <c r="AH58" s="33"/>
       <c r="AI58" s="33"/>
       <c r="AJ58" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK58" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL58" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM58" s="35"/>
-      <c r="AN58" s="35"/>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN58" s="65"/>
+      <c r="AO58" s="66"/>
+      <c r="AP58" s="66"/>
+      <c r="AQ58" s="66"/>
+    </row>
+    <row r="59" spans="1:43">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -5850,21 +6588,24 @@
       <c r="AH59" s="33"/>
       <c r="AI59" s="33"/>
       <c r="AJ59" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK59" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL59" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM59" s="35"/>
-      <c r="AN59" s="35"/>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN59" s="65"/>
+      <c r="AO59" s="66"/>
+      <c r="AP59" s="66"/>
+      <c r="AQ59" s="66"/>
+    </row>
+    <row r="60" spans="1:43">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -5901,21 +6642,24 @@
       <c r="AH60" s="33"/>
       <c r="AI60" s="33"/>
       <c r="AJ60" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK60" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL60" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM60" s="35"/>
-      <c r="AN60" s="35"/>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN60" s="65"/>
+      <c r="AO60" s="66"/>
+      <c r="AP60" s="66"/>
+      <c r="AQ60" s="66"/>
+    </row>
+    <row r="61" spans="1:43">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -5952,113 +6696,116 @@
       <c r="AH61" s="33"/>
       <c r="AI61" s="33"/>
       <c r="AJ61" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK61" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL61" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM61" s="35"/>
-      <c r="AN61" s="35"/>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN61" s="65"/>
+      <c r="AO61" s="66"/>
+      <c r="AP61" s="66"/>
+      <c r="AQ61" s="66"/>
+    </row>
+    <row r="62" spans="1:43">
       <c r="AL62" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43">
       <c r="AL63" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43">
       <c r="AL64" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="38:38">
       <c r="AL65" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="38:38">
       <c r="AL66" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="38:38">
       <c r="AL67" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="38:38">
       <c r="AL68" s="35">
-        <f t="shared" ref="AL68:AL76" si="8">IF(AJ68&gt;100,(AJ68-100)/10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AL68:AL76" si="14">IF(AJ68&gt;100,(AJ68-100)/10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="38:38">
       <c r="AL69" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="38:38">
       <c r="AL70" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="38:38">
       <c r="AL71" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="38:38">
       <c r="AL72" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="38:38">
       <c r="AL73" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="38:38">
       <c r="AL74" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="38:38">
       <c r="AL75" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="38:38">
       <c r="AL76" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:F38">
-    <sortCondition ref="B3:B38"/>
+  <sortState ref="A3:AQ30">
+    <sortCondition ref="B3:B30"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="AJ1:AN1"/>
@@ -6068,62 +6815,62 @@
     <mergeCell ref="Z1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="A30:A33">
-    <cfRule type="cellIs" dxfId="43" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="32" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:A33">
-    <cfRule type="cellIs" dxfId="42" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A22">
-    <cfRule type="cellIs" dxfId="41" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="10" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A22">
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C22">
-    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C22">
-    <cfRule type="cellIs" dxfId="38" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E22">
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E22">
-    <cfRule type="cellIs" dxfId="36" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C21">
-    <cfRule type="cellIs" dxfId="35" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C21">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="cellIs" dxfId="33" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6133,15 +6880,275 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54DB34B-D9EA-463A-A5C9-1BACA9E35944}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B20">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B20">
+    <cfRule type="cellIs" dxfId="34" priority="3" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B19">
+    <cfRule type="cellIs" dxfId="33" priority="2" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B19">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -6151,61 +7158,61 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1">
+      <c r="A1" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="72" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="77" t="s">
+      <c r="J1" s="83"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="78" t="s">
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="79" t="s">
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
       <c r="V1" s="47"/>
       <c r="W1" s="47"/>
       <c r="X1" s="47"/>
       <c r="Y1" s="47"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+    </row>
+    <row r="2" spans="1:40" ht="15">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -6287,7 +7294,7 @@
       <c r="AM2" s="37"/>
       <c r="AN2" s="37"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -6341,7 +7348,7 @@
       <c r="AM3" s="40"/>
       <c r="AN3" s="40"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40">
       <c r="A4" s="6" t="s">
         <v>92</v>
       </c>
@@ -6395,7 +7402,7 @@
       <c r="AM4" s="40"/>
       <c r="AN4" s="40"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40">
       <c r="A5" s="11" t="s">
         <v>94</v>
       </c>
@@ -6449,7 +7456,7 @@
       <c r="AM5" s="40"/>
       <c r="AN5" s="40"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40">
       <c r="A6" s="6" t="s">
         <v>97</v>
       </c>
@@ -6503,7 +7510,7 @@
       <c r="AM6" s="40"/>
       <c r="AN6" s="40"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40">
       <c r="A7" s="6" t="s">
         <v>100</v>
       </c>
@@ -6555,7 +7562,7 @@
       <c r="AM7" s="40"/>
       <c r="AN7" s="40"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40">
       <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
@@ -6609,7 +7616,7 @@
       <c r="AM8" s="40"/>
       <c r="AN8" s="40"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40">
       <c r="A9" s="6" t="s">
         <v>106</v>
       </c>
@@ -6663,7 +7670,7 @@
       <c r="AM9" s="40"/>
       <c r="AN9" s="40"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -6717,7 +7724,7 @@
       <c r="AM10" s="40"/>
       <c r="AN10" s="40"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40">
       <c r="A11" s="22" t="s">
         <v>175</v>
       </c>
@@ -6769,7 +7776,7 @@
       <c r="AM11" s="40"/>
       <c r="AN11" s="40"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40">
       <c r="A12" s="6" t="s">
         <v>160</v>
       </c>
@@ -6823,7 +7830,7 @@
       <c r="AM12" s="40"/>
       <c r="AN12" s="40"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40">
       <c r="A13" s="6" t="s">
         <v>115</v>
       </c>
@@ -6877,7 +7884,7 @@
       <c r="AM13" s="40"/>
       <c r="AN13" s="40"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>117</v>
@@ -6929,7 +7936,7 @@
       <c r="AM14" s="40"/>
       <c r="AN14" s="40"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40">
       <c r="A15" s="6" t="s">
         <v>172</v>
       </c>
@@ -6981,7 +7988,7 @@
       <c r="AM15" s="40"/>
       <c r="AN15" s="40"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40">
       <c r="A16" s="6" t="s">
         <v>121</v>
       </c>
@@ -7033,7 +8040,7 @@
       <c r="AM16" s="40"/>
       <c r="AN16" s="40"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="A17" s="6" t="s">
         <v>124</v>
       </c>
@@ -7085,7 +8092,7 @@
       <c r="AM17" s="40"/>
       <c r="AN17" s="40"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40">
       <c r="A18" s="6" t="s">
         <v>126</v>
       </c>
@@ -7137,7 +8144,7 @@
       <c r="AM18" s="40"/>
       <c r="AN18" s="40"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19" s="6" t="s">
         <v>128</v>
       </c>
@@ -7191,7 +8198,7 @@
       <c r="AM19" s="40"/>
       <c r="AN19" s="40"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="A20" s="6" t="s">
         <v>131</v>
       </c>
@@ -7245,7 +8252,7 @@
       <c r="AM20" s="40"/>
       <c r="AN20" s="40"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21" s="11" t="s">
         <v>134</v>
       </c>
@@ -7299,7 +8306,7 @@
       <c r="AM21" s="40"/>
       <c r="AN21" s="40"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>66</v>
@@ -7349,7 +8356,7 @@
       <c r="AM22" s="40"/>
       <c r="AN22" s="40"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23" s="22" t="s">
         <v>137</v>
       </c>
@@ -7401,7 +8408,7 @@
       <c r="AM23" s="40"/>
       <c r="AN23" s="40"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24" s="22" t="s">
         <v>173</v>
       </c>
@@ -7453,7 +8460,7 @@
       <c r="AM24" s="40"/>
       <c r="AN24" s="40"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25" s="6" t="s">
         <v>140</v>
       </c>
@@ -7507,7 +8514,7 @@
       <c r="AM25" s="40"/>
       <c r="AN25" s="40"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40">
       <c r="A26" s="6" t="s">
         <v>143</v>
       </c>
@@ -7559,7 +8566,7 @@
       <c r="AM26" s="40"/>
       <c r="AN26" s="40"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40">
       <c r="A27" s="6" t="s">
         <v>146</v>
       </c>
@@ -7611,7 +8618,7 @@
       <c r="AM27" s="40"/>
       <c r="AN27" s="40"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40">
       <c r="A28" s="22" t="s">
         <v>149</v>
       </c>
@@ -7665,7 +8672,7 @@
       <c r="AM28" s="40"/>
       <c r="AN28" s="40"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40">
       <c r="A29" s="22" t="s">
         <v>152</v>
       </c>
@@ -7719,7 +8726,7 @@
       <c r="AM29" s="40"/>
       <c r="AN29" s="40"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -7761,7 +8768,7 @@
       <c r="AM30" s="40"/>
       <c r="AN30" s="40"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
@@ -7803,7 +8810,7 @@
       <c r="AM31" s="40"/>
       <c r="AN31" s="40"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
@@ -7845,7 +8852,7 @@
       <c r="AM32" s="40"/>
       <c r="AN32" s="40"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
@@ -7887,7 +8894,7 @@
       <c r="AM33" s="40"/>
       <c r="AN33" s="40"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="25"/>
@@ -7929,7 +8936,7 @@
       <c r="AM34" s="40"/>
       <c r="AN34" s="40"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -7971,7 +8978,7 @@
       <c r="AM35" s="40"/>
       <c r="AN35" s="40"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -8013,7 +9020,7 @@
       <c r="AM36" s="40"/>
       <c r="AN36" s="40"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -8055,7 +9062,7 @@
       <c r="AM37" s="40"/>
       <c r="AN37" s="40"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -8097,7 +9104,7 @@
       <c r="AM38" s="40"/>
       <c r="AN38" s="40"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -8139,7 +9146,7 @@
       <c r="AM39" s="40"/>
       <c r="AN39" s="40"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -8181,7 +9188,7 @@
       <c r="AM40" s="40"/>
       <c r="AN40" s="40"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -8223,7 +9230,7 @@
       <c r="AM41" s="40"/>
       <c r="AN41" s="40"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -8265,7 +9272,7 @@
       <c r="AM42" s="40"/>
       <c r="AN42" s="40"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -8307,7 +9314,7 @@
       <c r="AM43" s="40"/>
       <c r="AN43" s="40"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -8349,7 +9356,7 @@
       <c r="AM44" s="40"/>
       <c r="AN44" s="40"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -8391,7 +9398,7 @@
       <c r="AM45" s="40"/>
       <c r="AN45" s="40"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -8433,7 +9440,7 @@
       <c r="AM46" s="40"/>
       <c r="AN46" s="40"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -8475,7 +9482,7 @@
       <c r="AM47" s="40"/>
       <c r="AN47" s="40"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -8517,7 +9524,7 @@
       <c r="AM48" s="40"/>
       <c r="AN48" s="40"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -8559,7 +9566,7 @@
       <c r="AM49" s="40"/>
       <c r="AN49" s="40"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -8601,7 +9608,7 @@
       <c r="AM50" s="40"/>
       <c r="AN50" s="40"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -8643,7 +9650,7 @@
       <c r="AM51" s="40"/>
       <c r="AN51" s="40"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -8685,7 +9692,7 @@
       <c r="AM52" s="40"/>
       <c r="AN52" s="40"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -8727,7 +9734,7 @@
       <c r="AM53" s="40"/>
       <c r="AN53" s="40"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -8769,7 +9776,7 @@
       <c r="AM54" s="40"/>
       <c r="AN54" s="40"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -8811,7 +9818,7 @@
       <c r="AM55" s="40"/>
       <c r="AN55" s="40"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -8853,7 +9860,7 @@
       <c r="AM56" s="40"/>
       <c r="AN56" s="40"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -8895,7 +9902,7 @@
       <c r="AM57" s="40"/>
       <c r="AN57" s="40"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -8937,7 +9944,7 @@
       <c r="AM58" s="40"/>
       <c r="AN58" s="40"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -8979,7 +9986,7 @@
       <c r="AM59" s="40"/>
       <c r="AN59" s="40"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -9021,7 +10028,7 @@
       <c r="AM60" s="40"/>
       <c r="AN60" s="40"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -9063,7 +10070,7 @@
       <c r="AM61" s="40"/>
       <c r="AN61" s="40"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -9174,20 +10181,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A96A5E2-D678-48C2-AA2E-9CAD939C6DCB}">
   <dimension ref="A2:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>112</v>
       </c>
@@ -9198,7 +10205,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>131</v>
       </c>
@@ -9209,7 +10216,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>103</v>
       </c>
@@ -9220,7 +10227,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>140</v>
       </c>
@@ -9231,7 +10238,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
         <v>94</v>
       </c>
@@ -9242,7 +10249,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>100</v>
       </c>
@@ -9253,7 +10260,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>115</v>
       </c>
@@ -9264,7 +10271,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>146</v>
       </c>
@@ -9275,7 +10282,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
         <v>149</v>
       </c>
@@ -9286,7 +10293,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>92</v>
       </c>
@@ -9297,7 +10304,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>106</v>
       </c>
@@ -9308,7 +10315,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>121</v>
       </c>
@@ -9319,7 +10326,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="22" t="s">
         <v>137</v>
       </c>
@@ -9330,7 +10337,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>128</v>
       </c>
@@ -9341,7 +10348,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="11" t="s">
         <v>134</v>
       </c>
@@ -9352,7 +10359,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>126</v>
       </c>
@@ -9363,7 +10370,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>143</v>
       </c>
@@ -9374,7 +10381,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="22"/>
       <c r="B19" s="53">
         <v>42</v>
@@ -9383,7 +10390,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>109</v>
       </c>
@@ -9394,7 +10401,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="22"/>
       <c r="B21" s="53">
         <v>41</v>
@@ -9403,7 +10410,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="6"/>
       <c r="B22" s="53">
         <v>38</v>
@@ -9412,7 +10419,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>97</v>
       </c>
@@ -9423,7 +10430,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>124</v>
       </c>
@@ -9434,7 +10441,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="6"/>
       <c r="B25" s="53">
         <v>35</v>
@@ -9443,7 +10450,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>89</v>
       </c>
@@ -9454,7 +10461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="22" t="s">
         <v>152</v>
       </c>
@@ -9465,7 +10472,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>118</v>
       </c>
@@ -9534,7 +10541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN62"/>
   <sheetViews>
@@ -9543,7 +10550,7 @@
       <selection pane="topRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -9553,59 +10560,59 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1">
+      <c r="A1" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="72" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="81" t="s">
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="83" t="s">
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="69" t="s">
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
       <c r="AE1" s="50"/>
       <c r="AF1" s="50"/>
       <c r="AG1" s="50"/>
       <c r="AH1" s="50"/>
       <c r="AI1" s="50"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+    </row>
+    <row r="2" spans="1:40" ht="15">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -9695,7 +10702,7 @@
       <c r="AM2" s="37"/>
       <c r="AN2" s="37"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -9747,7 +10754,7 @@
       <c r="AM3" s="40"/>
       <c r="AN3" s="40"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40">
       <c r="A4" s="6" t="s">
         <v>92</v>
       </c>
@@ -9799,7 +10806,7 @@
       <c r="AM4" s="40"/>
       <c r="AN4" s="40"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40">
       <c r="A5" s="11" t="s">
         <v>94</v>
       </c>
@@ -9851,7 +10858,7 @@
       <c r="AM5" s="40"/>
       <c r="AN5" s="40"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40">
       <c r="A6" s="6" t="s">
         <v>97</v>
       </c>
@@ -9903,7 +10910,7 @@
       <c r="AM6" s="40"/>
       <c r="AN6" s="40"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40">
       <c r="A7" s="6" t="s">
         <v>100</v>
       </c>
@@ -9955,7 +10962,7 @@
       <c r="AM7" s="40"/>
       <c r="AN7" s="40"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40">
       <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
@@ -10007,7 +11014,7 @@
       <c r="AM8" s="40"/>
       <c r="AN8" s="40"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40">
       <c r="A9" s="6" t="s">
         <v>106</v>
       </c>
@@ -10059,7 +11066,7 @@
       <c r="AM9" s="40"/>
       <c r="AN9" s="40"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -10111,7 +11118,7 @@
       <c r="AM10" s="40"/>
       <c r="AN10" s="40"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40">
       <c r="A11" s="6" t="s">
         <v>160</v>
       </c>
@@ -10163,7 +11170,7 @@
       <c r="AM11" s="40"/>
       <c r="AN11" s="40"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -10215,7 +11222,7 @@
       <c r="AM12" s="40"/>
       <c r="AN12" s="40"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>117</v>
@@ -10265,7 +11272,7 @@
       <c r="AM13" s="40"/>
       <c r="AN13" s="40"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40">
       <c r="A14" s="6" t="s">
         <v>172</v>
       </c>
@@ -10317,7 +11324,7 @@
       <c r="AM14" s="40"/>
       <c r="AN14" s="40"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40">
       <c r="A15" s="6" t="s">
         <v>121</v>
       </c>
@@ -10369,7 +11376,7 @@
       <c r="AM15" s="40"/>
       <c r="AN15" s="40"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40">
       <c r="A16" s="6" t="s">
         <v>124</v>
       </c>
@@ -10421,7 +11428,7 @@
       <c r="AM16" s="40"/>
       <c r="AN16" s="40"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="A17" s="6" t="s">
         <v>126</v>
       </c>
@@ -10473,7 +11480,7 @@
       <c r="AM17" s="40"/>
       <c r="AN17" s="40"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40">
       <c r="A18" s="6" t="s">
         <v>128</v>
       </c>
@@ -10525,7 +11532,7 @@
       <c r="AM18" s="40"/>
       <c r="AN18" s="40"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19" s="6" t="s">
         <v>131</v>
       </c>
@@ -10577,7 +11584,7 @@
       <c r="AM19" s="40"/>
       <c r="AN19" s="40"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="A20" s="11" t="s">
         <v>134</v>
       </c>
@@ -10629,7 +11636,7 @@
       <c r="AM20" s="40"/>
       <c r="AN20" s="40"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
         <v>66</v>
@@ -10677,7 +11684,7 @@
       <c r="AM21" s="40"/>
       <c r="AN21" s="40"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22" s="22" t="s">
         <v>137</v>
       </c>
@@ -10729,7 +11736,7 @@
       <c r="AM22" s="40"/>
       <c r="AN22" s="40"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23" s="6" t="s">
         <v>140</v>
       </c>
@@ -10781,7 +11788,7 @@
       <c r="AM23" s="40"/>
       <c r="AN23" s="40"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24" s="6" t="s">
         <v>143</v>
       </c>
@@ -10833,7 +11840,7 @@
       <c r="AM24" s="40"/>
       <c r="AN24" s="40"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25" s="6" t="s">
         <v>146</v>
       </c>
@@ -10885,7 +11892,7 @@
       <c r="AM25" s="40"/>
       <c r="AN25" s="40"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40">
       <c r="A26" s="22" t="s">
         <v>149</v>
       </c>
@@ -10937,7 +11944,7 @@
       <c r="AM26" s="40"/>
       <c r="AN26" s="40"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40">
       <c r="A27" s="22" t="s">
         <v>152</v>
       </c>
@@ -10989,7 +11996,7 @@
       <c r="AM27" s="40"/>
       <c r="AN27" s="40"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40">
       <c r="A28" s="22"/>
       <c r="B28" s="22" t="s">
         <v>164</v>
@@ -11039,7 +12046,7 @@
       <c r="AM28" s="40"/>
       <c r="AN28" s="40"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40">
       <c r="A29" s="22"/>
       <c r="B29" s="22" t="s">
         <v>167</v>
@@ -11087,7 +12094,7 @@
       <c r="AM29" s="40"/>
       <c r="AN29" s="40"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40">
       <c r="A30" s="6"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -11129,7 +12136,7 @@
       <c r="AM30" s="40"/>
       <c r="AN30" s="40"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40">
       <c r="A31" s="6"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
@@ -11171,7 +12178,7 @@
       <c r="AM31" s="40"/>
       <c r="AN31" s="40"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40">
       <c r="A32" s="6"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
@@ -11213,7 +12220,7 @@
       <c r="AM32" s="40"/>
       <c r="AN32" s="40"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40">
       <c r="A33" s="6"/>
       <c r="B33" s="22"/>
       <c r="C33" s="25"/>
@@ -11255,7 +12262,7 @@
       <c r="AM33" s="40"/>
       <c r="AN33" s="40"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40">
       <c r="A34" s="22"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -11297,7 +12304,7 @@
       <c r="AM34" s="40"/>
       <c r="AN34" s="40"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -11339,7 +12346,7 @@
       <c r="AM35" s="40"/>
       <c r="AN35" s="40"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -11381,7 +12388,7 @@
       <c r="AM36" s="40"/>
       <c r="AN36" s="40"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -11423,7 +12430,7 @@
       <c r="AM37" s="40"/>
       <c r="AN37" s="40"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -11465,7 +12472,7 @@
       <c r="AM38" s="40"/>
       <c r="AN38" s="40"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -11507,7 +12514,7 @@
       <c r="AM39" s="40"/>
       <c r="AN39" s="40"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -11549,7 +12556,7 @@
       <c r="AM40" s="40"/>
       <c r="AN40" s="40"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -11591,7 +12598,7 @@
       <c r="AM41" s="40"/>
       <c r="AN41" s="40"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -11633,7 +12640,7 @@
       <c r="AM42" s="40"/>
       <c r="AN42" s="40"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -11675,7 +12682,7 @@
       <c r="AM43" s="40"/>
       <c r="AN43" s="40"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -11717,7 +12724,7 @@
       <c r="AM44" s="40"/>
       <c r="AN44" s="40"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -11759,7 +12766,7 @@
       <c r="AM45" s="40"/>
       <c r="AN45" s="40"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -11801,7 +12808,7 @@
       <c r="AM46" s="40"/>
       <c r="AN46" s="40"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -11843,7 +12850,7 @@
       <c r="AM47" s="40"/>
       <c r="AN47" s="40"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -11885,7 +12892,7 @@
       <c r="AM48" s="40"/>
       <c r="AN48" s="40"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -11927,7 +12934,7 @@
       <c r="AM49" s="40"/>
       <c r="AN49" s="40"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -11969,7 +12976,7 @@
       <c r="AM50" s="40"/>
       <c r="AN50" s="40"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -12011,7 +13018,7 @@
       <c r="AM51" s="40"/>
       <c r="AN51" s="40"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -12053,7 +13060,7 @@
       <c r="AM52" s="40"/>
       <c r="AN52" s="40"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -12095,7 +13102,7 @@
       <c r="AM53" s="40"/>
       <c r="AN53" s="40"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -12137,7 +13144,7 @@
       <c r="AM54" s="40"/>
       <c r="AN54" s="40"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -12179,7 +13186,7 @@
       <c r="AM55" s="40"/>
       <c r="AN55" s="40"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -12221,7 +13228,7 @@
       <c r="AM56" s="40"/>
       <c r="AN56" s="40"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -12263,7 +13270,7 @@
       <c r="AM57" s="40"/>
       <c r="AN57" s="40"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -12305,7 +13312,7 @@
       <c r="AM58" s="40"/>
       <c r="AN58" s="40"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -12347,7 +13354,7 @@
       <c r="AM59" s="40"/>
       <c r="AN59" s="40"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -12389,7 +13396,7 @@
       <c r="AM60" s="40"/>
       <c r="AN60" s="40"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -12431,7 +13438,7 @@
       <c r="AM61" s="40"/>
       <c r="AN61" s="40"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40">
       <c r="Z62" s="38"/>
       <c r="AA62" s="38"/>
       <c r="AB62" s="38"/>
@@ -12513,7 +13520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580A4C2F-60FA-4046-B4EC-E68947B06C0B}">
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -12521,331 +13528,331 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="101"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="105"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="105"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="96"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="100"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="106"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="108"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="102"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="104"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="112"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="104"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="112"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
       <c r="A10" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="86"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="94"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="88"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="88"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="96"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
       <c r="A14" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="90"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="93" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="88"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="96"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A18" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="116"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="86"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="88"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="96"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="90"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="86"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="88"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="96"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="90"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="99"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="54"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="54"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="54"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="54"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="54"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="54"/>
     </row>
   </sheetData>
